--- a/master/实验数据/所需做的实验.xlsx
+++ b/master/实验数据/所需做的实验.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t xml:space="preserve">Algorithm</t>
   </si>
@@ -382,7 +382,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -416,7 +416,9 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -426,7 +428,9 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -455,9 +459,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>

--- a/master/实验数据/所需做的实验.xlsx
+++ b/master/实验数据/所需做的实验.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t xml:space="preserve">Algorithm</t>
   </si>
@@ -382,7 +382,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -459,7 +459,9 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
@@ -471,7 +473,9 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>

--- a/master/实验数据/所需做的实验.xlsx
+++ b/master/实验数据/所需做的实验.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t xml:space="preserve">Algorithm</t>
   </si>
@@ -382,7 +382,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -459,9 +459,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
@@ -473,9 +471,7 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>

--- a/master/实验数据/所需做的实验.xlsx
+++ b/master/实验数据/所需做的实验.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t xml:space="preserve">Algorithm</t>
   </si>
@@ -382,7 +382,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,7 +449,9 @@
         <v>8</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
         <v>9</v>
